--- a/Aston-Animal-Society/external_docs/database schema.xlsx
+++ b/Aston-Animal-Society/external_docs/database schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisat\Documents\installs\IACoursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisat\Documents\installs\htdocs\Aston-Animal-Society\external_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E005A6-B1E4-4076-A915-B32080B4A7C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F7D63-4D0D-4F5B-96EF-6E10E42B9433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14016" yWindow="3468" windowWidth="17280" windowHeight="9420" xr2:uid="{615BA446-4E32-49B0-A743-6F6764A91CAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{615BA446-4E32-49B0-A743-6F6764A91CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,58 +34,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>availability</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Animals</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Requests</t>
-  </si>
-  <si>
-    <t>Adoption</t>
-  </si>
-  <si>
-    <t>animal_id</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>adopted_by</t>
+  </si>
+  <si>
+    <t>user.id</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>adoptionrequests</t>
+  </si>
+  <si>
+    <t>nas</t>
+  </si>
+  <si>
+    <t>..@..</t>
+  </si>
+  <si>
+    <t>hfthr</t>
+  </si>
+  <si>
+    <t>animal.id</t>
+  </si>
+  <si>
+    <t>Whenever a staff clicks accept on an animal request, all the other requests for that animal should disappear and user.id of the accepted should be stored in adopted_by of the animal.id</t>
+  </si>
+  <si>
+    <t>when clicking details, an admin should see a list of all user.id who's made a request to the specific animal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,13 +134,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,79 +456,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75FC385-5D8B-4E01-8A42-9308530D57F4}">
-  <dimension ref="B1:W2"/>
+  <dimension ref="B1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
       <c r="N2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{203243F0-4445-4E13-AEA7-6F106E7E37BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>